--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
+    <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -136,6 +137,45 @@
   </si>
   <si>
     <t>Blodtryk hjemme diastolisk;Arm</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>72287-6</t>
+  </si>
+  <si>
+    <t>Wound size panel</t>
+  </si>
+  <si>
+    <t>39126-8</t>
+  </si>
+  <si>
+    <t>Length of Wound</t>
+  </si>
+  <si>
+    <t>39125-0</t>
+  </si>
+  <si>
+    <t>Width of Wound</t>
+  </si>
+  <si>
+    <t>39127-6</t>
+  </si>
+  <si>
+    <t>Depth of Wound</t>
+  </si>
+  <si>
+    <t>89260-4</t>
+  </si>
+  <si>
+    <t>Area of wound</t>
+  </si>
+  <si>
+    <t>94083-3</t>
+  </si>
+  <si>
+    <t>Wound volume</t>
   </si>
 </sst>
 </file>
@@ -485,4 +525,136 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -115,7 +115,7 @@
     <t/>
   </si>
   <si>
-    <t>urn:oid:1.2.208.184.100.8</t>
+    <t>urn:oid:1.2.208.176.2.1</t>
   </si>
   <si>
     <t>ZZ3170</t>
@@ -127,16 +127,16 @@
     <t>source-is-broader-than-target</t>
   </si>
   <si>
-    <t>MCS88019</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme systolisk;Arm</t>
-  </si>
-  <si>
-    <t>MCS88020</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme diastolisk;Arm</t>
+    <t>DNK05472</t>
+  </si>
+  <si>
+    <t>Blodtryk systolisk;Arm</t>
+  </si>
+  <si>
+    <t>DNK05473</t>
+  </si>
+  <si>
+    <t>Blodtryk diastolisk;Arm</t>
   </si>
   <si>
     <t>http://loinc.org</t>

--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-observation-code.xlsx
+++ b/fhir/activitydefinition-code-to-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
